--- a/img/地形插件比较.xlsx
+++ b/img/地形插件比较.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\lemonkiller.github.io\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6721F284-56DA-4081-BCA0-0E17FF6E75A4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41839B2C-421F-4960-9116-04163B08417E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCA66726-509B-473F-A3B4-D49777622C45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>特性</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>较难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有待调查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -98,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +118,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,12 +136,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -137,8 +165,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,101 +495,151 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
